--- a/Mifos Automation Excels/Client/2415-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-BLR-ONTIME-CASH-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/2415-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-BLR-ONTIME-CASH-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -213,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -236,11 +236,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,7 +540,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,7 +562,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="11">
-        <v>42019</v>
+        <v>42036</v>
       </c>
     </row>
   </sheetData>
@@ -578,10 +573,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,7 +590,7 @@
     <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -615,11 +610,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>5000</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="6">
         <v>833.33</v>
       </c>
       <c r="C2" s="6"/>
@@ -629,17 +624,16 @@
       <c r="E2" s="9">
         <v>4166.67</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="6">
         <v>833.33</v>
       </c>
-      <c r="G2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>69.099999999999994</v>
-      </c>
-      <c r="B3" s="13">
-        <v>12.92</v>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>68.75</v>
+      </c>
+      <c r="B3" s="6">
+        <v>12.5</v>
       </c>
       <c r="C3" s="6">
         <v>0</v>
@@ -647,14 +641,14 @@
       <c r="D3" s="6">
         <v>0</v>
       </c>
-      <c r="E3" s="13">
-        <v>56.18</v>
-      </c>
-      <c r="F3" s="13">
-        <v>12.96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E3" s="6">
+        <v>56.25</v>
+      </c>
+      <c r="F3" s="6">
+        <v>13.89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>0</v>
       </c>
@@ -674,7 +668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>0</v>
       </c>
@@ -701,10 +695,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,7 +797,6 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
@@ -815,18 +808,18 @@
       <c r="C3" s="7">
         <v>42036</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="7">
         <v>42036</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="13">
+      <c r="E3" s="10"/>
+      <c r="F3" s="6">
         <v>833.33</v>
       </c>
       <c r="G3" s="9">
         <v>4166.67</v>
       </c>
-      <c r="H3" s="14">
-        <v>12.92</v>
+      <c r="H3" s="6">
+        <v>12.5</v>
       </c>
       <c r="I3" s="6">
         <v>0</v>
@@ -834,19 +827,16 @@
       <c r="J3" s="6">
         <v>0</v>
       </c>
-      <c r="K3" s="13">
-        <v>846.25</v>
-      </c>
-      <c r="L3">
-        <v>846.25</v>
-      </c>
-      <c r="M3" s="14">
-        <v>846.25</v>
+      <c r="K3" s="6">
+        <v>845.83</v>
+      </c>
+      <c r="L3" s="6">
+        <v>845.83</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0</v>
       </c>
       <c r="N3" s="6">
-        <v>0</v>
-      </c>
-      <c r="O3" s="6">
         <v>0</v>
       </c>
       <c r="P3" s="6">
@@ -865,14 +855,14 @@
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="13">
+      <c r="F4" s="6">
         <v>833.33</v>
       </c>
       <c r="G4" s="9">
-        <v>3333.33</v>
-      </c>
-      <c r="H4" s="14">
-        <v>12.96</v>
+        <v>3333.34</v>
+      </c>
+      <c r="H4" s="6">
+        <v>13.89</v>
       </c>
       <c r="I4" s="6">
         <v>0</v>
@@ -880,8 +870,8 @@
       <c r="J4" s="6">
         <v>0</v>
       </c>
-      <c r="K4" s="13">
-        <v>846.3</v>
+      <c r="K4" s="6">
+        <v>847.22</v>
       </c>
       <c r="L4" s="6">
         <v>0</v>
@@ -892,11 +882,8 @@
       <c r="N4" s="6">
         <v>0</v>
       </c>
-      <c r="O4" s="6">
-        <v>0</v>
-      </c>
-      <c r="P4" s="14">
-        <v>846.3</v>
+      <c r="P4" s="6">
+        <v>847.22</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -911,14 +898,14 @@
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="13">
+      <c r="F5" s="6">
         <v>833.33</v>
       </c>
       <c r="G5" s="9">
-        <v>2500</v>
-      </c>
-      <c r="H5" s="14">
-        <v>17.940000000000001</v>
+        <v>2500.0100000000002</v>
+      </c>
+      <c r="H5" s="6">
+        <v>17.36</v>
       </c>
       <c r="I5" s="6">
         <v>0</v>
@@ -926,8 +913,8 @@
       <c r="J5" s="6">
         <v>0</v>
       </c>
-      <c r="K5" s="13">
-        <v>851.27</v>
+      <c r="K5" s="6">
+        <v>850.69</v>
       </c>
       <c r="L5" s="6">
         <v>0</v>
@@ -938,11 +925,8 @@
       <c r="N5" s="6">
         <v>0</v>
       </c>
-      <c r="O5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="14">
-        <v>851.27</v>
+      <c r="P5" s="6">
+        <v>850.69</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -957,13 +941,13 @@
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="13">
+      <c r="F6" s="6">
         <v>833.33</v>
       </c>
       <c r="G6" s="9">
-        <v>1666.67</v>
-      </c>
-      <c r="H6" s="14">
+        <v>1666.68</v>
+      </c>
+      <c r="H6" s="6">
         <v>12.5</v>
       </c>
       <c r="I6" s="6">
@@ -972,7 +956,7 @@
       <c r="J6" s="6">
         <v>0</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="6">
         <v>845.83</v>
       </c>
       <c r="L6" s="6">
@@ -984,10 +968,7 @@
       <c r="N6" s="6">
         <v>0</v>
       </c>
-      <c r="O6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="14">
+      <c r="P6" s="6">
         <v>845.83</v>
       </c>
     </row>
@@ -1003,14 +984,14 @@
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="13">
+      <c r="F7" s="6">
         <v>833.33</v>
       </c>
-      <c r="G7" s="9">
-        <v>833.33</v>
-      </c>
-      <c r="H7" s="14">
-        <v>8.61</v>
+      <c r="G7" s="6">
+        <v>833.35</v>
+      </c>
+      <c r="H7" s="6">
+        <v>8.33</v>
       </c>
       <c r="I7" s="6">
         <v>0</v>
@@ -1018,8 +999,8 @@
       <c r="J7" s="6">
         <v>0</v>
       </c>
-      <c r="K7" s="13">
-        <v>841.94</v>
+      <c r="K7" s="6">
+        <v>841.66</v>
       </c>
       <c r="L7" s="6">
         <v>0</v>
@@ -1030,11 +1011,8 @@
       <c r="N7" s="6">
         <v>0</v>
       </c>
-      <c r="O7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="14">
-        <v>841.94</v>
+      <c r="P7" s="6">
+        <v>841.66</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1049,13 +1027,13 @@
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="13">
+      <c r="F8" s="6">
         <v>833.33</v>
       </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="14">
+      <c r="G8" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="H8" s="6">
         <v>4.17</v>
       </c>
       <c r="I8" s="6">
@@ -1064,7 +1042,7 @@
       <c r="J8" s="6">
         <v>0</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="6">
         <v>837.5</v>
       </c>
       <c r="L8" s="6">
@@ -1076,11 +1054,51 @@
       <c r="N8" s="6">
         <v>0</v>
       </c>
-      <c r="O8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="14">
+      <c r="P8" s="6">
         <v>837.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6">
+        <v>31</v>
+      </c>
+      <c r="C9" s="7">
+        <v>42217</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
@@ -1093,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,7 +1164,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>116</v>
+        <v>1705</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>27</v>
@@ -1158,13 +1176,13 @@
         <v>31</v>
       </c>
       <c r="E2" s="6">
-        <v>846.25</v>
-      </c>
-      <c r="F2" s="13">
+        <v>845.83</v>
+      </c>
+      <c r="F2" s="6">
         <v>833.33</v>
       </c>
-      <c r="G2" s="13">
-        <v>12.92</v>
+      <c r="G2" s="6">
+        <v>12.5</v>
       </c>
       <c r="H2" s="6">
         <v>0</v>
@@ -1173,14 +1191,14 @@
         <v>0</v>
       </c>
       <c r="J2" s="9">
-        <v>4153.75</v>
+        <v>4166.67</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>114</v>
+        <v>1513</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>27</v>

--- a/Mifos Automation Excels/Client/2415-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-BLR-ONTIME-CASH-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/2415-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-BLR-ONTIME-CASH-Makerepayment1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -118,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -246,6 +251,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -293,7 +301,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -326,9 +334,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -361,6 +386,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -695,10 +737,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,12 +758,13 @@
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.85546875" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -761,17 +804,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7">
@@ -797,8 +841,9 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -836,14 +881,15 @@
       <c r="M3" s="6">
         <v>0</v>
       </c>
-      <c r="N3" s="6">
-        <v>0</v>
-      </c>
-      <c r="P3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N3" s="6"/>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -879,14 +925,15 @@
       <c r="M4" s="6">
         <v>0</v>
       </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6">
+      <c r="N4" s="6"/>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
         <v>847.22</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -922,14 +969,15 @@
       <c r="M5" s="6">
         <v>0</v>
       </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
+      <c r="N5" s="6"/>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
         <v>850.69</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -965,14 +1013,15 @@
       <c r="M6" s="6">
         <v>0</v>
       </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
+      <c r="N6" s="6"/>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
         <v>845.83</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -1008,14 +1057,15 @@
       <c r="M7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
+      <c r="N7" s="6"/>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
         <v>841.66</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1051,14 +1101,15 @@
       <c r="M8" s="6">
         <v>0</v>
       </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
+      <c r="N8" s="6"/>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
         <v>837.5</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1094,10 +1145,11 @@
       <c r="M9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6">
+      <c r="N9" s="6"/>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
         <v>0.02</v>
       </c>
     </row>
@@ -1111,7 +1163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
